--- a/compliance-dashboard.xlsx
+++ b/compliance-dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9c5855b056b25ad2/文档/GitHub/Cyber-risk-compliance-India/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="116" documentId="11_AB6967478654F0FE6A2B405742FFBE789425A894" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A7916C7-711F-46B4-AC67-03C950DDD5A8}"/>
+  <xr:revisionPtr revIDLastSave="137" documentId="11_AB6967478654F0FE6A2B405742FFBE789425A894" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F859ABC3-12DB-4075-A39A-E5C496A76291}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
   <si>
     <t>Risk ID</t>
   </si>
@@ -205,7 +205,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,8 +225,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,31 +260,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="-0.249977111117893"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -323,22 +318,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,57 +511,7 @@
           </a:sp3d>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent4">
-                    <a:shade val="51000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="80000">
-                  <a:schemeClr val="accent4">
-                    <a:shade val="93000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent4">
-                    <a:shade val="94000"/>
-                    <a:satMod val="135000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="16200000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-            <a:scene3d>
-              <a:camera prst="orthographicFront">
-                <a:rot lat="0" lon="0" rev="0"/>
-              </a:camera>
-              <a:lightRig rig="threePt" dir="t">
-                <a:rot lat="0" lon="0" rev="1200000"/>
-              </a:lightRig>
-            </a:scene3d>
-            <a:sp3d>
-              <a:bevelT w="63500" h="25400"/>
-            </a:sp3d>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -693,9 +635,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$4:$A$10</c:f>
+              <c:f>Sheet2!$A$4:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Cloud Security</c:v>
                 </c:pt>
@@ -703,26 +645,17 @@
                   <c:v>Data Privacy</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Incident Response</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>Insider Threat</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Monitoring &amp; Logging</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Third-Party Risk</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$4:$B$10</c:f>
+              <c:f>Sheet2!$B$4:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
@@ -730,16 +663,7 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2856,8 +2780,8 @@
       <xdr:row>44</xdr:row>
       <xdr:rowOff>72661</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Category">
@@ -2880,7 +2804,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -2934,8 +2858,8 @@
       <xdr:row>44</xdr:row>
       <xdr:rowOff>115114</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="5" name="Review Frequency">
@@ -2958,7 +2882,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -3012,8 +2936,8 @@
       <xdr:row>44</xdr:row>
       <xdr:rowOff>105862</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="6" name="Compliance Status">
@@ -3036,7 +2960,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -3078,6 +3002,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3209,8 +3137,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E2E05095-2025-4A4F-836E-EB155256A193}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E2E05095-2025-4A4F-836E-EB155256A193}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -3230,8 +3158,8 @@
     <pivotField showAll="0">
       <items count="4">
         <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3247,7 +3175,7 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="7">
+  <rowItems count="4">
     <i>
       <x/>
     </i>
@@ -3255,16 +3183,7 @@
       <x v="1"/>
     </i>
     <i>
-      <x v="2"/>
-    </i>
-    <i>
       <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -3300,7 +3219,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1DE4FAB5-7104-4407-9C04-97A28D7BC13B}" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1DE4FAB5-7104-4407-9C04-97A28D7BC13B}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField dataField="1" showAll="0"/>
@@ -3411,10 +3330,10 @@
       <items count="6">
         <i x="0" s="1"/>
         <i x="1" s="1"/>
-        <i x="5" s="1"/>
         <i x="3" s="1"/>
-        <i x="4" s="1"/>
-        <i x="2" s="1"/>
+        <i x="5" s="1" nd="1"/>
+        <i x="4" s="1" nd="1"/>
+        <i x="2" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -3430,8 +3349,8 @@
     <tabular pivotCacheId="1660667873">
       <items count="3">
         <i x="0" s="1"/>
-        <i x="1" s="1"/>
-        <i x="2" s="1"/>
+        <i x="1"/>
+        <i x="2"/>
       </items>
     </tabular>
   </data>
@@ -3446,8 +3365,8 @@
   <data>
     <tabular pivotCacheId="1660667873">
       <items count="2">
-        <i x="1" s="1"/>
         <i x="0" s="1"/>
+        <i x="1" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -3747,7 +3666,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F0764F-80D1-40AE-8F55-A036C0A31B7F}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:B1"/>
@@ -3755,18 +3674,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B3" t="s">
@@ -3774,59 +3693,35 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="11">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="11">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="8">
-        <v>16</v>
+      <c r="A6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="11">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="8">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="8">
-        <v>116</v>
+      <c r="B7" s="11">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3852,13 +3747,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B3" t="s">
@@ -3866,34 +3761,34 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7">
         <v>7</v>
       </c>
     </row>
@@ -3909,7 +3804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="92" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -4148,10 +4043,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED2F0B1-2E98-469D-A70D-F5B56FD4C98C}">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView zoomScale="88" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="101" zoomScaleNormal="82" zoomScaleSheetLayoutView="71" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4174,611 +4069,576 @@
       <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <f>COUNTA(DATA!A2:A8)</f>
         <v>7</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="10">
         <f>COUNTIF(DATA!E2:E8, "High")</f>
         <v>2</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="10">
         <f>COUNTIF(DATA!H2:H8, "Partial")</f>
         <v>5</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="14" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="10">
         <f>COUNTIF(DATA!H2:H8, "Compliant")</f>
         <v>2</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup scale="81" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
       <x14:slicerList>
-        <x14:slicer r:id="rId2"/>
+        <x14:slicer r:id="rId3"/>
       </x14:slicerList>
     </ext>
   </extLst>
